--- a/FishLandings/data/Action_required_species_list.xlsx
+++ b/FishLandings/data/Action_required_species_list.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmastrand/MyProjects/Kenya_SamakiSalama/FishLandings/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E84F7B5-57C9-6847-B09A-9F49EF4764B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CE91DE-E418-C94C-9F8A-EEA780B05E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19560" activeTab="1" xr2:uid="{8E5BDA33-4AD9-5F43-B652-B251EBD6C2CD}"/>
+    <workbookView xWindow="5560" yWindow="460" windowWidth="28040" windowHeight="19700" activeTab="2" xr2:uid="{8E5BDA33-4AD9-5F43-B652-B251EBD6C2CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Validate_species" sheetId="1" r:id="rId1"/>
     <sheet name="Validate_length" sheetId="2" r:id="rId2"/>
+    <sheet name="Questions to email" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Validate_length!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Validate_species!$A$1:$F$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,8 +40,35 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={40CDCEEF-5F8B-384A-AA92-FF9980241C71}</author>
+    <author>tc={A3965732-481C-B34B-9769-CF86EB533017}</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{40CDCEEF-5F8B-384A-AA92-FF9980241C71}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Could be 3 individual surveys or 3x reported in 1 survey at different lengths</t>
+      </text>
+    </comment>
+    <comment ref="D44" authorId="1" shapeId="0" xr:uid="{A3965732-481C-B34B-9769-CF86EB533017}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This includes the 30,000 and 6,000 numbers we took out.  These were reported several times (several 30k and several 6k reports)</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="127">
   <si>
     <t>Scientific Name</t>
   </si>
@@ -297,6 +326,129 @@
   </si>
   <si>
     <t>Number of fish reported with this length</t>
+  </si>
+  <si>
+    <t># of individuals reported (column C x number_of_fish)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># of times reported </t>
+  </si>
+  <si>
+    <t>1. "Pono blue fish" - take out 40 observations of this common name?</t>
+  </si>
+  <si>
+    <t>In survey and fishbase but not our validation list:</t>
+  </si>
+  <si>
+    <t>4. Platybelone platyura found in 1,756 surveys* for a total of 16,352 observations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sardinella melanura appears in 40 surveys* for a total of 435,648 times (this total number includes several 30k and 6k observations that I already took out) </t>
+  </si>
+  <si>
+    <t>5. Siganus canaliculatus found in 4,588 surveys* for a total of 37,293 observations</t>
+  </si>
+  <si>
+    <t>Do the following fish seem reasonable to find in our area?</t>
+  </si>
+  <si>
+    <t>6. Lethrinus conchliatus, Gymnothorax monochrous, Panulirus homarus, Sepia pharaonis, Panulirus penicillatus, Siganus guttatus, and Epinephelus melanostigma?</t>
+  </si>
+  <si>
+    <t>7. Planiliza alata, Siganus fuscescens, Auxis thazard, Mugil cephalus, Naso brachycentron, Uroteuthis duvauceli, Caranx hippos, and Plotosus canius?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The above spp. were found in 100-450 surveys* and totals of 150  - 890 observations (per spp). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The above spp. were found in 150 - 520 surveys* and totals of 1,175 - 9,150 observations (per spp.) </t>
+  </si>
+  <si>
+    <t>*Survey values: Could be 3 individual surveys or 3x reported in 1 survey at different lengths</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Fish found in &lt;10 surveys* with &lt;150 total observations? (applies to 11 spp.) </t>
+  </si>
+  <si>
+    <t>3. Fish found in &lt;50 surveys* with &lt;100 total observations? (applies to 9 spp.)</t>
+  </si>
+  <si>
+    <t>In surveys but NOT on validation list or in fishbase:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8. Fish found in &lt;30 surveys* with &lt;200 total observations (applies to 15 spp.) </t>
+  </si>
+  <si>
+    <t>9. Is Acanthurus harak (found in 68 surveys* with 308 observations) supposed to be a different fish?</t>
+  </si>
+  <si>
+    <t>10. Is Scarus carolinus (found in 102 surveys* with 820 observations) supposed to be a different fish?</t>
+  </si>
+  <si>
+    <t>11. Is Monodactylus argentiamailatus (found in 16 surveys* with 1,080 observations) supposed to be a different fish?</t>
+  </si>
+  <si>
+    <t>Acanthurus tennenti</t>
+  </si>
+  <si>
+    <t>Alepes djedaba</t>
+  </si>
+  <si>
+    <t>Baracuda</t>
+  </si>
+  <si>
+    <t>Cirnhitus lentjan</t>
+  </si>
+  <si>
+    <t>Halichoeres hartulanus</t>
+  </si>
+  <si>
+    <t>Lujtanus argentimaculatus</t>
+  </si>
+  <si>
+    <t>Naso thynnoides</t>
+  </si>
+  <si>
+    <t>Panulirus merra</t>
+  </si>
+  <si>
+    <t>Paracanthurus hepatus</t>
+  </si>
+  <si>
+    <t>Platycephalus crocodilas</t>
+  </si>
+  <si>
+    <t>Pomacanthus maculosus</t>
+  </si>
+  <si>
+    <t>Scylla serrata</t>
+  </si>
+  <si>
+    <t>(This is a mud crab..) Decide if we keep or not - is it realistic to find in our sites?</t>
+  </si>
+  <si>
+    <t>Lutjanus fulviflamma</t>
+  </si>
+  <si>
+    <t>61-70</t>
+  </si>
+  <si>
+    <t>2021 Modified: Aug, Sept, Oct, Dec.</t>
+  </si>
+  <si>
+    <t>2021 Unmodified: May, June, July, Aug, Sept, Oct, Dec</t>
+  </si>
+  <si>
+    <t># No November</t>
+  </si>
+  <si>
+    <t>2022 Modified: Jan, Feb, Mar, April, May</t>
+  </si>
+  <si>
+    <t>2022 Unmodified: Jan, Feb, Mar, April, May</t>
+  </si>
+  <si>
+    <t>Differences: Dec 2021</t>
   </si>
 </sst>
 </file>
@@ -322,14 +474,17 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Lucida Sans"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <u/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -361,23 +516,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,6 +552,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Emma Strand" id="{B781D132-7D5B-E248-9137-DF8FE5148AEA}" userId="S::emma_strand@uri.edu::7f67b1d4-a6d0-4bf6-a787-44c695b65a06" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -690,24 +855,37 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C1" dT="2022-08-12T19:35:35.36" personId="{B781D132-7D5B-E248-9137-DF8FE5148AEA}" id="{40CDCEEF-5F8B-384A-AA92-FF9980241C71}">
+    <text>Could be 3 individual surveys or 3x reported in 1 survey at different lengths</text>
+  </threadedComment>
+  <threadedComment ref="D44" dT="2022-08-12T19:28:32.84" personId="{B781D132-7D5B-E248-9137-DF8FE5148AEA}" id="{A3965732-481C-B34B-9769-CF86EB533017}">
+    <text>This includes the 30,000 and 6,000 numbers we took out.  These were reported several times (several 30k and several 6k reports)</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3D3E92E-33A3-A34B-9114-3D1B75D8D67F}">
-  <dimension ref="A1:D63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3D3E92E-33A3-A34B-9114-3D1B75D8D67F}">
+  <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B53" sqref="B53"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.1640625" customWidth="1"/>
     <col min="2" max="2" width="44.6640625" customWidth="1"/>
-    <col min="3" max="3" width="53.5" customWidth="1"/>
-    <col min="4" max="4" width="39.5" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" customWidth="1"/>
+    <col min="5" max="5" width="53.5" customWidth="1"/>
+    <col min="6" max="6" width="39.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="55" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -715,939 +893,1696 @@
         <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="D9">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>16</v>
+      </c>
+      <c r="D14">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>32</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>17</v>
+      </c>
+      <c r="D16">
+        <v>33</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>34</v>
+      </c>
+      <c r="D17">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>24</v>
+      </c>
+      <c r="D18">
+        <v>40</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>28</v>
+      </c>
+      <c r="D19">
+        <v>40</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>33</v>
+      </c>
+      <c r="D20">
+        <v>61</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>8</v>
+      </c>
+      <c r="D21">
+        <v>88</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>87</v>
+      </c>
+      <c r="D22">
+        <v>106</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>53</v>
+      </c>
+      <c r="D23">
+        <v>115</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>8</v>
+      </c>
+      <c r="D24">
+        <v>144</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>124</v>
+      </c>
+      <c r="D25">
+        <v>146</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <v>120</v>
+      </c>
+      <c r="D26">
+        <v>162</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27">
+        <v>81</v>
+      </c>
+      <c r="D27">
+        <v>167</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28">
+        <v>116</v>
+      </c>
+      <c r="D28">
+        <v>224</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <v>201</v>
+      </c>
+      <c r="D29">
+        <v>240</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30">
+        <v>75</v>
+      </c>
+      <c r="D30">
+        <v>259</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31">
+        <v>176</v>
+      </c>
+      <c r="D31">
+        <v>264</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32">
+        <v>303</v>
+      </c>
+      <c r="D32">
+        <v>575</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33">
+        <v>450</v>
+      </c>
+      <c r="D33">
+        <v>887</v>
+      </c>
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>32</v>
       </c>
-      <c r="B29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>37</v>
-      </c>
       <c r="B34" t="s">
         <v>6</v>
       </c>
-      <c r="C34" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C34">
+        <v>520</v>
+      </c>
+      <c r="D34">
+        <v>1037</v>
+      </c>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B35" t="s">
         <v>6</v>
       </c>
-      <c r="C35" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C35">
+        <v>434</v>
+      </c>
+      <c r="D35">
+        <v>1125</v>
+      </c>
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>39</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
       </c>
-      <c r="C36" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C36">
+        <v>152</v>
+      </c>
+      <c r="D36">
+        <v>1176</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B37" t="s">
         <v>6</v>
       </c>
-      <c r="C37" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C37">
+        <v>396</v>
+      </c>
+      <c r="D37">
+        <v>1258</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="B38" t="s">
         <v>6</v>
       </c>
-      <c r="C38" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C38">
+        <v>153</v>
+      </c>
+      <c r="D38">
+        <v>2587</v>
+      </c>
+      <c r="E38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B39" t="s">
         <v>6</v>
       </c>
-      <c r="C39" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C39">
+        <v>150</v>
+      </c>
+      <c r="D39">
+        <v>3031</v>
+      </c>
+      <c r="E39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B40" t="s">
         <v>6</v>
       </c>
-      <c r="C40" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C40">
+        <v>485</v>
+      </c>
+      <c r="D40">
+        <v>4501</v>
+      </c>
+      <c r="E40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B41" t="s">
         <v>6</v>
       </c>
-      <c r="C41" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C41">
+        <v>357</v>
+      </c>
+      <c r="D41">
+        <v>9143</v>
+      </c>
+      <c r="E41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B42" t="s">
         <v>6</v>
       </c>
-      <c r="C42" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C42">
+        <v>1756</v>
+      </c>
+      <c r="D42">
+        <v>16352</v>
+      </c>
+      <c r="E42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B43" t="s">
         <v>6</v>
       </c>
-      <c r="C43" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C43">
+        <v>4588</v>
+      </c>
+      <c r="D43">
+        <v>37293</v>
+      </c>
+      <c r="E43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44">
         <v>48</v>
       </c>
-      <c r="B44" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>49</v>
+      <c r="D44">
+        <v>435648</v>
+      </c>
+      <c r="E44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="9" t="s">
+        <v>106</v>
       </c>
       <c r="B45" t="s">
-        <v>50</v>
-      </c>
-      <c r="C45" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="C45">
+        <v>9</v>
+      </c>
+      <c r="D45">
+        <v>48</v>
+      </c>
+      <c r="E45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="B46" t="s">
-        <v>50</v>
-      </c>
-      <c r="C46" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>108</v>
+      </c>
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>111</v>
+      </c>
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>112</v>
+      </c>
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49">
+        <v>9</v>
+      </c>
+      <c r="E49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>114</v>
+      </c>
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="D50">
+        <v>8</v>
+      </c>
+      <c r="E50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>116</v>
+      </c>
+      <c r="B51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>117</v>
+      </c>
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>53</v>
-      </c>
-      <c r="B47" t="s">
-        <v>50</v>
-      </c>
-      <c r="C47" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>54</v>
-      </c>
-      <c r="B48" t="s">
-        <v>50</v>
-      </c>
-      <c r="C48" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>55</v>
-      </c>
-      <c r="B49" t="s">
-        <v>50</v>
-      </c>
-      <c r="C49" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>56</v>
-      </c>
-      <c r="B50" t="s">
-        <v>50</v>
-      </c>
-      <c r="C50" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>57</v>
-      </c>
-      <c r="B51" t="s">
-        <v>50</v>
-      </c>
-      <c r="C51" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>58</v>
-      </c>
-      <c r="B52" t="s">
-        <v>50</v>
-      </c>
-      <c r="C52" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>59</v>
       </c>
       <c r="B53" t="s">
         <v>50</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B54" t="s">
         <v>50</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B55" t="s">
         <v>50</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="B56" t="s">
-        <v>63</v>
-      </c>
-      <c r="C56" t="s">
+        <v>50</v>
+      </c>
+      <c r="C56">
+        <v>4</v>
+      </c>
+      <c r="D56">
+        <v>4</v>
+      </c>
+      <c r="E56" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B57" t="s">
         <v>50</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57">
+        <v>9</v>
+      </c>
+      <c r="D57">
+        <v>9</v>
+      </c>
+      <c r="E57" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>65</v>
       </c>
       <c r="B58" t="s">
         <v>50</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58">
+        <v>14</v>
+      </c>
+      <c r="E58" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B59" t="s">
         <v>50</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59">
+        <v>4</v>
+      </c>
+      <c r="D59">
+        <v>16</v>
+      </c>
+      <c r="E59" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B60" t="s">
         <v>50</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60">
+        <v>8</v>
+      </c>
+      <c r="D60">
+        <v>16</v>
+      </c>
+      <c r="E60" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B61" t="s">
         <v>50</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61">
+        <v>4</v>
+      </c>
+      <c r="D61">
+        <v>24</v>
+      </c>
+      <c r="E61" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B62" t="s">
         <v>50</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>26</v>
+      </c>
+      <c r="E62" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="3"/>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>59</v>
+      </c>
+      <c r="B63" t="s">
+        <v>50</v>
+      </c>
+      <c r="C63">
+        <v>4</v>
+      </c>
+      <c r="D63">
+        <v>36</v>
+      </c>
+      <c r="E63" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>54</v>
+      </c>
+      <c r="B64" t="s">
+        <v>50</v>
+      </c>
+      <c r="C64">
+        <v>12</v>
+      </c>
+      <c r="D64">
+        <v>116</v>
+      </c>
+      <c r="E64" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>58</v>
+      </c>
+      <c r="B65" t="s">
+        <v>50</v>
+      </c>
+      <c r="C65">
+        <v>28</v>
+      </c>
+      <c r="D65">
+        <v>122</v>
+      </c>
+      <c r="E65" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" t="s">
+        <v>50</v>
+      </c>
+      <c r="C66">
+        <v>4</v>
+      </c>
+      <c r="D66">
+        <v>128</v>
+      </c>
+      <c r="E66" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>57</v>
+      </c>
+      <c r="B67" t="s">
+        <v>50</v>
+      </c>
+      <c r="C67">
+        <v>6</v>
+      </c>
+      <c r="D67">
+        <v>180</v>
+      </c>
+      <c r="E67" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>49</v>
+      </c>
+      <c r="B68" t="s">
+        <v>50</v>
+      </c>
+      <c r="C68">
+        <v>68</v>
+      </c>
+      <c r="D68">
+        <v>308</v>
+      </c>
+      <c r="E68" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>64</v>
+      </c>
+      <c r="B69" t="s">
+        <v>50</v>
+      </c>
+      <c r="C69">
+        <v>102</v>
+      </c>
+      <c r="D69">
+        <v>820</v>
+      </c>
+      <c r="E69" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>60</v>
+      </c>
+      <c r="B70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C70">
+        <v>16</v>
+      </c>
+      <c r="D70">
+        <v>1080</v>
+      </c>
+      <c r="E70" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>109</v>
+      </c>
+      <c r="B71" t="s">
+        <v>50</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+      <c r="D71">
+        <v>16</v>
+      </c>
+      <c r="E71" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>110</v>
+      </c>
+      <c r="B72" t="s">
+        <v>50</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>113</v>
+      </c>
+      <c r="B73" t="s">
+        <v>50</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>115</v>
+      </c>
+      <c r="B74" t="s">
+        <v>50</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="E74" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F1" xr:uid="{E3D3E92E-33A3-A34B-9114-3D1B75D8D67F}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F74">
+      <sortCondition ref="B1:B74"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{847C17D9-6096-7345-84C6-4A6C507FFD30}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31" style="5" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="27.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="39.33203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="36.5" style="5" customWidth="1"/>
+    <col min="1" max="1" width="31" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="39.33203125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="36.5" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="55" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>54</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>55.5</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>2</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>27</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>38</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
+        <v>8</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="4">
+        <v>27</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="4">
+        <v>33</v>
+      </c>
+      <c r="E4" s="4">
+        <v>9</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="4">
+        <v>27</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="4">
+        <v>28</v>
+      </c>
+      <c r="E5" s="4">
         <v>12</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="5">
-        <v>27</v>
-      </c>
-      <c r="C4" s="5" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="4">
+        <v>30</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D6" s="4">
         <v>33</v>
       </c>
-      <c r="E4" s="5">
-        <v>17</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="E6" s="4">
+        <v>19</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="5">
-        <v>27</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="5">
-        <v>28</v>
-      </c>
-      <c r="E5" s="5">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="4">
+        <v>30</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="4">
+        <v>38</v>
+      </c>
+      <c r="E7" s="4">
         <v>2</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="5">
-        <v>30</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="5">
-        <v>33</v>
-      </c>
-      <c r="E6" s="5">
-        <v>32</v>
-      </c>
-      <c r="F6" s="5" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="4">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="4">
+        <v>38</v>
+      </c>
+      <c r="E8" s="4">
+        <v>120</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" s="5">
-        <v>30</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="5">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="4">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="4">
+        <v>43</v>
+      </c>
+      <c r="E9" s="4">
         <v>38</v>
       </c>
-      <c r="E7" s="5">
+      <c r="F9" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="4">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="4">
+        <v>55.5</v>
+      </c>
+      <c r="E10" s="4">
         <v>2</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" s="5">
-        <v>35.200000000000003</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="5">
-        <v>38</v>
-      </c>
-      <c r="E8" s="5">
-        <v>152</v>
-      </c>
-      <c r="F8" s="5" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="4">
+        <v>35</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="4">
+        <v>65.5</v>
+      </c>
+      <c r="E11" s="4">
+        <v>4</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" s="5">
-        <v>35.200000000000003</v>
-      </c>
-      <c r="C9" s="5" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="4">
+        <v>35</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="4">
+        <v>55.5</v>
+      </c>
+      <c r="E12" s="4">
+        <v>4</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="4">
+        <v>40</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D13" s="4">
         <v>43</v>
       </c>
-      <c r="E9" s="5">
-        <v>48</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="5">
-        <v>35.200000000000003</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="5">
-        <v>55.5</v>
-      </c>
-      <c r="E10" s="5">
-        <v>4</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="5">
-        <v>40</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="5">
-        <v>43</v>
-      </c>
-      <c r="E11" s="5">
+      <c r="E13" s="4">
         <v>1</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>84</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{847C17D9-6096-7345-84C6-4A6C507FFD30}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G11">
-      <sortCondition ref="A1:A11"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
+      <sortCondition ref="A1:A13"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A1E5D7-846E-D249-9858-4F48018BF5FF}">
+  <dimension ref="A1:A34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="140.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/FishLandings/data/Action_required_species_list.xlsx
+++ b/FishLandings/data/Action_required_species_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmastrand/MyProjects/Kenya_SamakiSalama/FishLandings/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CE91DE-E418-C94C-9F8A-EEA780B05E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331EF3CD-2D18-4045-8A37-DCB18CD8B9DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5560" yWindow="460" windowWidth="28040" windowHeight="19700" activeTab="2" xr2:uid="{8E5BDA33-4AD9-5F43-B652-B251EBD6C2CD}"/>
   </bookViews>
@@ -2454,7 +2454,7 @@
   <dimension ref="A1:A34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
